--- a/계정_210520.xlsx
+++ b/계정_210520.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68C806D-1829-47DF-8E84-802B0BA3627B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CCC58A-7C8A-4281-B530-55492905BEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{68CC61DA-FADC-48B1-8570-9FC7C6F74325}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>VDI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>mvrs1.MVRS_SMS_MSG_HIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjjjj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D18111-24F8-4DB1-BC71-DD2B29DA43CE}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -992,6 +996,11 @@
         <v>59</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/계정_210520.xlsx
+++ b/계정_210520.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K-clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CCC58A-7C8A-4281-B530-55492905BEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73226397-D45D-409B-87C4-9F20374F1321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{68CC61DA-FADC-48B1-8570-9FC7C6F74325}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>VDI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,10 @@
   </si>
   <si>
     <t>jjjjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkkkkk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D18111-24F8-4DB1-BC71-DD2B29DA43CE}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1000,6 +1004,9 @@
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
